--- a/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul3\Semestrul2\VVSS\02_Inventory\Docs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8182B56E-C174-441C-8197-3AB2E0A9A28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E78A5A-BA46-4532-97D3-FE21F929DE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
   <si>
     <t>VVSS, Info Romana, 2022-2023</t>
   </si>
@@ -591,12 +591,6 @@
   </si>
   <si>
     <t>"Electromotor"</t>
-  </si>
-  <si>
-    <t>Nu exista metoda equals in clasa Part</t>
-  </si>
-  <si>
-    <t>Implementare metode corespunzatoare</t>
   </si>
 </sst>
 </file>
@@ -1213,6 +1207,34 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1222,41 +1244,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1269,44 +1257,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,7 +1284,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1545,7 +1539,7 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -2745,8 +2739,8 @@
   </sheetPr>
   <dimension ref="B1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2781,7 +2775,7 @@
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:17" ht="14.25" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="42"/>
@@ -2794,13 +2788,13 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="14.25" customHeight="1">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="43"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="42"/>
@@ -2827,13 +2821,13 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="60" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="42"/>
@@ -2842,7 +2836,7 @@
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
       <c r="O6" s="43"/>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="60" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="43"/>
@@ -2851,7 +2845,7 @@
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -2875,11 +2869,11 @@
       <c r="M7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="60" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="43"/>
-      <c r="P7" s="51" t="s">
+      <c r="P7" s="60" t="s">
         <v>39</v>
       </c>
       <c r="Q7" s="43"/>
@@ -2914,11 +2908,11 @@
       <c r="M8" s="13">
         <v>1000</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="54">
         <v>1</v>
       </c>
       <c r="O8" s="43"/>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="54" t="s">
         <v>43</v>
       </c>
       <c r="Q8" s="43"/>
@@ -2927,7 +2921,7 @@
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -3007,7 +3001,7 @@
       <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="52" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -3087,7 +3081,7 @@
       <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="52" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -3115,11 +3109,11 @@
       <c r="M13" s="13">
         <v>1000</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="54">
         <v>5</v>
       </c>
       <c r="O13" s="43"/>
-      <c r="P13" s="52" t="s">
+      <c r="P13" s="54" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="43"/>
@@ -3140,16 +3134,16 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="55"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="43"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="47"/>
       <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="2:17" ht="14.25" customHeight="1">
       <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="52" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="12"/>
@@ -3163,7 +3157,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="44"/>
       <c r="O15" s="43"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="2:17" ht="14.25" customHeight="1">
@@ -3182,14 +3176,14 @@
       <c r="M16" s="18"/>
       <c r="N16" s="44"/>
       <c r="O16" s="43"/>
-      <c r="P16" s="56"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="2:17" ht="14.25" customHeight="1">
       <c r="B17" s="11">
         <v>11</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="52" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="12"/>
@@ -3203,7 +3197,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="44"/>
       <c r="O17" s="43"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1">
@@ -3222,14 +3216,14 @@
       <c r="M18" s="18"/>
       <c r="N18" s="44"/>
       <c r="O18" s="43"/>
-      <c r="P18" s="56"/>
+      <c r="P18" s="47"/>
       <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="2:17" ht="14.25" customHeight="1">
       <c r="B19" s="19">
         <v>13</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="19"/>
@@ -3243,7 +3237,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="44"/>
       <c r="O19" s="43"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="47"/>
       <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" customHeight="1">
@@ -3262,7 +3256,7 @@
       <c r="D22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="54"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="46"/>
     </row>
     <row r="23" spans="2:17" ht="14.25" customHeight="1">
@@ -6205,6 +6199,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
@@ -6219,34 +6239,8 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6260,7 +6254,7 @@
   </sheetPr>
   <dimension ref="B1:S1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -6297,7 +6291,7 @@
     </row>
     <row r="2" spans="2:18" ht="14.25" customHeight="1"/>
     <row r="3" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="42"/>
@@ -6308,13 +6302,13 @@
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1"/>
     <row r="5" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="65" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
       <c r="E5" s="21"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="58" t="s">
         <v>63</v>
       </c>
       <c r="H5" s="42"/>
@@ -6340,19 +6334,19 @@
         <v>62</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="66" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="42"/>
@@ -6360,16 +6354,16 @@
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
       <c r="P6" s="43"/>
-      <c r="Q6" s="61" t="s">
+      <c r="Q6" s="66" t="s">
         <v>31</v>
       </c>
       <c r="R6" s="43"/>
     </row>
     <row r="7" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B7" s="60">
+      <c r="B7" s="52">
         <v>1</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="52" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -6398,14 +6392,14 @@
       <c r="P7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="60" t="s">
         <v>71</v>
       </c>
       <c r="R7" s="43"/>
     </row>
     <row r="8" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="23" t="s">
         <v>72</v>
       </c>
@@ -6444,8 +6438,8 @@
       <c r="R8" s="43"/>
     </row>
     <row r="9" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="23" t="s">
         <v>75</v>
       </c>
@@ -6484,8 +6478,8 @@
       <c r="R9" s="43"/>
     </row>
     <row r="10" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="23" t="s">
         <v>79</v>
       </c>
@@ -6518,14 +6512,14 @@
       <c r="P10" s="23">
         <v>34</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="54" t="s">
         <v>43</v>
       </c>
       <c r="R10" s="43"/>
     </row>
     <row r="11" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="23" t="s">
         <v>82</v>
       </c>
@@ -6556,7 +6550,7 @@
       <c r="P11" s="23">
         <v>34</v>
       </c>
-      <c r="Q11" s="52" t="s">
+      <c r="Q11" s="54" t="s">
         <v>43</v>
       </c>
       <c r="R11" s="43"/>
@@ -6594,16 +6588,16 @@
       <c r="P12" s="23">
         <v>67</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="54" t="s">
         <v>43</v>
       </c>
       <c r="R12" s="43"/>
     </row>
     <row r="13" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B13" s="60">
+      <c r="B13" s="52">
         <v>2</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="52" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -6642,8 +6636,8 @@
       <c r="R13" s="43"/>
     </row>
     <row r="14" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="23" t="s">
         <v>89</v>
       </c>
@@ -6682,8 +6676,8 @@
       <c r="R14" s="43"/>
     </row>
     <row r="15" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="23" t="s">
         <v>91</v>
       </c>
@@ -6714,14 +6708,14 @@
       <c r="P15" s="23">
         <v>34</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="54" t="s">
         <v>43</v>
       </c>
       <c r="R15" s="43"/>
     </row>
     <row r="16" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="23" t="s">
         <v>92</v>
       </c>
@@ -6754,14 +6748,14 @@
       <c r="P16" s="23">
         <v>34</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q16" s="54" t="s">
         <v>43</v>
       </c>
       <c r="R16" s="43"/>
     </row>
     <row r="17" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="23" t="s">
         <v>94</v>
       </c>
@@ -6792,7 +6786,7 @@
       <c r="P17" s="23">
         <v>34</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q17" s="54" t="s">
         <v>43</v>
       </c>
       <c r="R17" s="43"/>
@@ -6836,10 +6830,10 @@
       <c r="R18" s="43"/>
     </row>
     <row r="19" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B19" s="58">
+      <c r="B19" s="49">
         <v>3</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="2"/>
       <c r="E19" s="9"/>
       <c r="G19" s="10">
@@ -6868,14 +6862,14 @@
       <c r="P19" s="23">
         <v>34</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q19" s="54" t="s">
         <v>43</v>
       </c>
       <c r="R19" s="43"/>
     </row>
     <row r="20" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="2"/>
       <c r="E20" s="9"/>
       <c r="G20" s="20">
@@ -6894,8 +6888,8 @@
       <c r="R20" s="43"/>
     </row>
     <row r="21" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="2"/>
       <c r="E21" s="9"/>
       <c r="G21" s="20">
@@ -6914,8 +6908,8 @@
       <c r="R21" s="43"/>
     </row>
     <row r="22" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="2"/>
       <c r="E22" s="9"/>
       <c r="G22" s="20">
@@ -6934,8 +6928,8 @@
       <c r="R22" s="43"/>
     </row>
     <row r="23" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="2"/>
       <c r="E23" s="9"/>
       <c r="G23" s="20">
@@ -6974,10 +6968,10 @@
       <c r="R24" s="43"/>
     </row>
     <row r="25" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B25" s="58">
+      <c r="B25" s="49">
         <v>4</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="2"/>
       <c r="E25" s="9"/>
       <c r="G25" s="20">
@@ -6996,8 +6990,8 @@
       <c r="R25" s="43"/>
     </row>
     <row r="26" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="2"/>
       <c r="E26" s="9"/>
       <c r="G26" s="9"/>
@@ -7015,8 +7009,8 @@
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="2"/>
       <c r="E27" s="9"/>
       <c r="G27" s="9"/>
@@ -7034,13 +7028,13 @@
       <c r="S27" s="9"/>
     </row>
     <row r="28" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="2"/>
       <c r="E28" s="9"/>
-      <c r="G28" s="54"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="46"/>
-      <c r="I28" s="65"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
       <c r="L28" s="46"/>
@@ -7053,13 +7047,13 @@
       <c r="S28" s="9"/>
     </row>
     <row r="29" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="2"/>
       <c r="E29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="66"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
       <c r="L29" s="46"/>
@@ -8064,32 +8058,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="K6:P6"/>
@@ -8104,6 +8072,32 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8118,8 +8112,8 @@
   </sheetPr>
   <dimension ref="B1:P999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8150,7 +8144,7 @@
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1"/>
     <row r="3" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="90" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="42"/>
@@ -8167,19 +8161,19 @@
       <c r="N3" s="43"/>
     </row>
     <row r="4" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="60" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="42"/>
@@ -8188,16 +8182,16 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="43"/>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="60" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="43"/>
     </row>
     <row r="5" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B5" s="72"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
@@ -8213,7 +8207,7 @@
       <c r="J5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="60" t="s">
         <v>38</v>
       </c>
       <c r="L5" s="43"/>
@@ -8228,7 +8222,7 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="87" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -8252,7 +8246,7 @@
       <c r="J6" s="13">
         <v>1000</v>
       </c>
-      <c r="K6" s="80">
+      <c r="K6" s="86">
         <v>1</v>
       </c>
       <c r="L6" s="78"/>
@@ -8267,7 +8261,7 @@
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>107</v>
       </c>
@@ -8289,7 +8283,7 @@
       <c r="J7" s="13">
         <v>1000</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="54">
         <v>5</v>
       </c>
       <c r="L7" s="43"/>
@@ -8304,7 +8298,7 @@
       <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="10" t="s">
         <v>108</v>
       </c>
@@ -8341,7 +8335,7 @@
       <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="10" t="s">
         <v>109</v>
       </c>
@@ -8378,7 +8372,7 @@
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="10" t="s">
         <v>106</v>
       </c>
@@ -8400,7 +8394,7 @@
       <c r="J10" s="13">
         <v>30</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="54">
         <v>34</v>
       </c>
       <c r="L10" s="43"/>
@@ -8415,7 +8409,7 @@
       <c r="B11" s="10">
         <v>6</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="10" t="s">
         <v>106</v>
       </c>
@@ -8437,7 +8431,7 @@
       <c r="J11" s="13">
         <v>30</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="54">
         <v>34</v>
       </c>
       <c r="L11" s="43"/>
@@ -8452,7 +8446,7 @@
       <c r="B12" s="10">
         <v>7</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="10" t="s">
         <v>106</v>
       </c>
@@ -8489,7 +8483,7 @@
       <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="10" t="s">
         <v>60</v>
       </c>
@@ -8549,7 +8543,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="79"/>
+      <c r="K15" s="85"/>
       <c r="L15" s="46"/>
       <c r="M15" s="35"/>
     </row>
@@ -8558,28 +8552,28 @@
       <c r="M16" s="35"/>
     </row>
     <row r="17" spans="2:16" ht="14.25" customHeight="1">
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="86" t="s">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="72"/>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1">
       <c r="B18" s="81" t="s">
@@ -8588,60 +8582,60 @@
       <c r="C18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="91" t="s">
+      <c r="H18" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="71" t="s">
+      <c r="I18" s="76"/>
+      <c r="J18" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="M18" s="94" t="s">
+      <c r="M18" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="O18" s="71" t="s">
+      <c r="O18" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="73" t="s">
+      <c r="P18" s="68" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="14.25" customHeight="1">
       <c r="B19" s="82"/>
-      <c r="C19" s="84"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="93"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="78"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="84"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
-      <c r="P19" s="85"/>
+      <c r="P19" s="69"/>
     </row>
     <row r="20" spans="2:16" ht="75" customHeight="1">
       <c r="B20" s="37" t="s">
@@ -8651,38 +8645,22 @@
         <v>8</v>
       </c>
       <c r="D20" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20" s="38">
-        <v>4</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="77"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="78"/>
-      <c r="J20" s="23">
-        <v>4</v>
-      </c>
-      <c r="K20" s="38">
-        <v>4</v>
-      </c>
-      <c r="L20" s="38">
-        <v>0</v>
-      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="23">
-        <v>4</v>
-      </c>
-      <c r="O20" s="38">
-        <v>4</v>
-      </c>
-      <c r="P20" s="38">
-        <v>0</v>
-      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="22" spans="2:16" ht="14.25" customHeight="1"/>
@@ -9665,6 +9643,31 @@
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
@@ -9677,31 +9680,6 @@
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
